--- a/rhla_analysis/rhla1_6_uniform_result/k3.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k3.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004797889905870119</v>
+        <v>0.004844582756320211</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08016053349457591</v>
+        <v>0.07968515819776052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.144075021312873</v>
+        <v>0.09809911744738628</v>
       </c>
       <c r="D2" t="n">
-        <v>16.70745579145139</v>
+        <v>16.44830157845973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00588894542575067</v>
+        <v>0.00556104931147468</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08193340009353602</v>
+        <v>0.08172847564979141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1474850809889173</v>
+        <v>0.1008146639511202</v>
       </c>
       <c r="D3" t="n">
-        <v>13.91308530985272</v>
+        <v>14.69659250838735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003543326096095319</v>
+        <v>0.003218840486225694</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09227033376827212</v>
+        <v>0.09276117064405721</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1589940323955669</v>
+        <v>0.1059063136456212</v>
       </c>
       <c r="D4" t="n">
-        <v>26.04059893611043</v>
+        <v>28.81819432836385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005141949040204872</v>
+        <v>0.005165872806350863</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07609619491638545</v>
+        <v>0.07576171816296744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1589940323955669</v>
+        <v>0.1072640868974881</v>
       </c>
       <c r="D5" t="n">
-        <v>14.79909550277331</v>
+        <v>14.66581176172725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.005492687566267153</v>
+        <v>0.005541428739138464</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07186902770766948</v>
+        <v>0.07268537250075045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1602728047740835</v>
+        <v>0.1014935505770536</v>
       </c>
       <c r="D6" t="n">
-        <v>13.08449221635082</v>
+        <v>13.11672060084111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005933233334590038</v>
+        <v>0.005626698839634808</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08152324042724901</v>
+        <v>0.08198730141991782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1500426257459506</v>
+        <v>0.09877800407331976</v>
       </c>
       <c r="D7" t="n">
-        <v>13.74010355398941</v>
+        <v>14.5711195421362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003492982733713223</v>
+        <v>0.003655402731987948</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06564643406253547</v>
+        <v>0.06618136009204609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.174765558397272</v>
+        <v>0.1276306856754922</v>
       </c>
       <c r="D8" t="n">
-        <v>18.79380434061003</v>
+        <v>18.10508032751131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002542365762814205</v>
+        <v>0.002664131215839842</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06852186130313806</v>
+        <v>0.06914381381934433</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159846547314578</v>
+        <v>0.1106585200271555</v>
       </c>
       <c r="D9" t="n">
-        <v>26.95200757710393</v>
+        <v>25.9536067173581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007494847507596891</v>
+        <v>0.007396029695623044</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07460161971261112</v>
+        <v>0.07481064157880755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1790281329923274</v>
+        <v>0.115071283095723</v>
       </c>
       <c r="D10" t="n">
-        <v>9.953720824472251</v>
+        <v>10.11497312173859</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004911128677064347</v>
+        <v>0.00463331212717924</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07836037026610541</v>
+        <v>0.07800236088416196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1649616368286445</v>
+        <v>0.1116768499660557</v>
       </c>
       <c r="D11" t="n">
-        <v>15.95567443224594</v>
+        <v>16.83511896955878</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k3.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k3.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004844582756320211</v>
+        <v>0.004844582756320221</v>
       </c>
       <c r="B2" t="n">
         <v>0.07968515819776052</v>
@@ -466,26 +466,26 @@
         <v>0.09809911744738628</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44830157845973</v>
+        <v>16.4483015784597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00556104931147468</v>
+        <v>0.005561049311474682</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08172847564979141</v>
+        <v>0.0817284756497914</v>
       </c>
       <c r="C3" t="n">
         <v>0.1008146639511202</v>
       </c>
       <c r="D3" t="n">
-        <v>14.69659250838735</v>
+        <v>14.69659250838734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003218840486225694</v>
+        <v>0.003218840486225706</v>
       </c>
       <c r="B4" t="n">
         <v>0.09276117064405721</v>
@@ -494,12 +494,12 @@
         <v>0.1059063136456212</v>
       </c>
       <c r="D4" t="n">
-        <v>28.81819432836385</v>
+        <v>28.81819432836374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005165872806350863</v>
+        <v>0.005165872806350888</v>
       </c>
       <c r="B5" t="n">
         <v>0.07576171816296744</v>
@@ -508,12 +508,12 @@
         <v>0.1072640868974881</v>
       </c>
       <c r="D5" t="n">
-        <v>14.66581176172725</v>
+        <v>14.66581176172718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.005541428739138464</v>
+        <v>0.005541428739138476</v>
       </c>
       <c r="B6" t="n">
         <v>0.07268537250075045</v>
@@ -522,12 +522,12 @@
         <v>0.1014935505770536</v>
       </c>
       <c r="D6" t="n">
-        <v>13.11672060084111</v>
+        <v>13.11672060084108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005626698839634808</v>
+        <v>0.005626698839634839</v>
       </c>
       <c r="B7" t="n">
         <v>0.08198730141991782</v>
@@ -536,12 +536,12 @@
         <v>0.09877800407331976</v>
       </c>
       <c r="D7" t="n">
-        <v>14.5711195421362</v>
+        <v>14.57111954213612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003655402731987948</v>
+        <v>0.003655402731987953</v>
       </c>
       <c r="B8" t="n">
         <v>0.06618136009204609</v>
@@ -550,12 +550,12 @@
         <v>0.1276306856754922</v>
       </c>
       <c r="D8" t="n">
-        <v>18.10508032751131</v>
+        <v>18.10508032751128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002664131215839842</v>
+        <v>0.002664131215839844</v>
       </c>
       <c r="B9" t="n">
         <v>0.06914381381934433</v>
@@ -564,26 +564,26 @@
         <v>0.1106585200271555</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9536067173581</v>
+        <v>25.95360671735808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007396029695623044</v>
+        <v>0.007396029695623019</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07481064157880755</v>
+        <v>0.07481064157880757</v>
       </c>
       <c r="C10" t="n">
         <v>0.115071283095723</v>
       </c>
       <c r="D10" t="n">
-        <v>10.11497312173859</v>
+        <v>10.11497312173863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00463331212717924</v>
+        <v>0.00463331212717921</v>
       </c>
       <c r="B11" t="n">
         <v>0.07800236088416196</v>
@@ -592,7 +592,7 @@
         <v>0.1116768499660557</v>
       </c>
       <c r="D11" t="n">
-        <v>16.83511896955878</v>
+        <v>16.83511896955888</v>
       </c>
     </row>
   </sheetData>
